--- a/24_Parallel_Processes/Parallel_Processes_HW/Задание 7/7.xlsx
+++ b/24_Parallel_Processes/Parallel_Processes_HW/Задание 7/7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub repos\ICT_EGE\24_Parallel_Processes\Parallel_Processes_HW\Задание 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0369EE-FBC2-4A39-B148-DDB609E65291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4947333-742C-4237-B7C3-7FF459EA5453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-7515" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -496,7 +496,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
